--- a/test3.xlsx
+++ b/test3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnyjabrony\projects\parserformom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\parserformom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845D591-9357-42E1-96D2-EBA7D02C55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E4429-E482-467C-A4B2-9FA9CDEA28FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{9C00F0A5-1270-4D39-8EF1-886103FB6841}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{9C00F0A5-1270-4D39-8EF1-886103FB6841}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,34 +400,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A788E4C4-5B00-467C-B840-D2AA33E1650A}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>7708001614</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>7705148464</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>7831000027</v>
       </c>
     </row>
